--- a/gold/excel/fuel_summary.xlsx
+++ b/gold/excel/fuel_summary.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,191 +463,476 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>FL7208</t>
+          <t>FL6679</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="C2" t="n">
-        <v>6.39</v>
+        <v>2.03</v>
       </c>
       <c r="D2" t="n">
-        <v>2.796</v>
+        <v>3.409</v>
       </c>
       <c r="E2" t="n">
-        <v>14114.49</v>
+        <v>5882.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FL2825</t>
+          <t>FL1976</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="C3" t="n">
-        <v>3.52</v>
+        <v>3.68</v>
       </c>
       <c r="D3" t="n">
-        <v>3.054</v>
+        <v>2.427</v>
       </c>
       <c r="E3" t="n">
-        <v>8492.559999999999</v>
+        <v>7591.66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FL9519</t>
+          <t>FL4876</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="C4" t="n">
-        <v>6.1</v>
+        <v>4.95</v>
       </c>
       <c r="D4" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="E4" t="n">
-        <v>13473.92</v>
+        <v>10211.6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FL4177</t>
+          <t>FL1198</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>790</v>
+        <v>850</v>
       </c>
       <c r="C5" t="n">
-        <v>2.48</v>
+        <v>2.03</v>
       </c>
       <c r="D5" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="E5" t="n">
-        <v>5477.92</v>
+        <v>4187.79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>FL6596</t>
+          <t>FL3066</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1400</v>
+        <v>850</v>
       </c>
       <c r="C6" t="n">
-        <v>7.7</v>
+        <v>2.5</v>
       </c>
       <c r="D6" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="E6" t="n">
-        <v>38905.02</v>
+        <v>5157.38</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FL4773</t>
+          <t>FL5388</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1350</v>
+        <v>850</v>
       </c>
       <c r="C7" t="n">
-        <v>4.44</v>
+        <v>3.68</v>
       </c>
       <c r="D7" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="E7" t="n">
-        <v>21632.35</v>
+        <v>7591.66</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>FL9323</t>
+          <t>FL5301</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1350</v>
+        <v>1000</v>
       </c>
       <c r="C8" t="n">
-        <v>1.21</v>
+        <v>2.5</v>
       </c>
       <c r="D8" t="n">
-        <v>2.796</v>
+        <v>2.427</v>
       </c>
       <c r="E8" t="n">
-        <v>4567.27</v>
+        <v>6067.5</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>FL1288</t>
+          <t>FL7875</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>500</v>
+        <v>1000</v>
       </c>
       <c r="C9" t="n">
-        <v>3.17</v>
+        <v>4.95</v>
       </c>
       <c r="D9" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="E9" t="n">
-        <v>5720.27</v>
+        <v>12013.65</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>FL8734</t>
+          <t>FL6369</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>1000</v>
       </c>
       <c r="C10" t="n">
-        <v>3.04</v>
+        <v>3.68</v>
       </c>
       <c r="D10" t="n">
-        <v>3.054</v>
+        <v>2.427</v>
       </c>
       <c r="E10" t="n">
-        <v>9284.16</v>
+        <v>8931.360000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>FL3561</t>
+          <t>FL7466</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>1000</v>
       </c>
       <c r="C11" t="n">
-        <v>2.97</v>
+        <v>3.68</v>
       </c>
       <c r="D11" t="n">
-        <v>3.609</v>
+        <v>2.427</v>
       </c>
       <c r="E11" t="n">
-        <v>10718.73</v>
+        <v>8931.360000000001</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>FL3108</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E12" t="n">
+        <v>6067.5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>FL4736</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E13" t="n">
+        <v>3519.15</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>FL5961</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C14" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E14" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>FL2734</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C15" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E15" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>FL1013</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C16" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E16" t="n">
+        <v>23754.26</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>FL5705</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>890</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="E17" t="n">
+        <v>6159.04</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>FL1524</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>890</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7948.91</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>FL5421</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>890</v>
+      </c>
+      <c r="C19" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E19" t="n">
+        <v>10692.15</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>FL6133</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>890</v>
+      </c>
+      <c r="C20" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D20" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10692.15</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>FL8299</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1759.58</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>FL5785</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>790</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3905.01</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>FL5235</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>790</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9490.780000000001</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>FL5689</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>790</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E24" t="n">
+        <v>3892.18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>FL8121</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>790</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2780.13</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FL1990</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C26" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>2.427</v>
+      </c>
+      <c r="E26" t="n">
+        <v>23754.26</v>
       </c>
     </row>
   </sheetData>
